--- a/Pros-Cons.xlsx
+++ b/Pros-Cons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daanm\OneDrive\Bureaublad\ROC\Keuzedelen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daanm\OneDrive\Bureaublad\ROC\Keuzedelen\Verdieping Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{640499E9-B8C7-4CD2-B037-1D119BD869FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E28963-AAE2-4E3B-8E20-2C1373215A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="13020" yWindow="-16200" windowWidth="15780" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,15 +47,6 @@
     <t>Drupal</t>
   </si>
   <si>
-    <t>Strengths</t>
-  </si>
-  <si>
-    <t>Weaknesses</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
     <t>Gebruiksgemak
 Duidelijk visie
 Makkelijker om ondersteuning te vinden
@@ -66,45 +57,55 @@
 Compleet naar wensen aan te passen</t>
   </si>
   <si>
+    <t xml:space="preserve">Minder vaak hacker doelwit
+Open source
+Veel functies
+</t>
+  </si>
+  <si>
+    <t>Verdieping Software</t>
+  </si>
+  <si>
+    <t>Gebruiksgemak
+Onduidelijke visie
+Werkt niet met Chrome &amp; Firefox
+Weinig ondersteuning
+Extreem kwestbare beveiliging
+Mogelijkheden liggen tussen Wordpress &amp; Drupal</t>
+  </si>
+  <si>
     <t>Vaak hacker doelwit
 Moet regelmatig updaten
 Voor veiligheid moet je plugins up to date houden
 Veel hosting providers (niet alle zijn betrouwbaar)
-Niet al te hoge peformance</t>
-  </si>
-  <si>
-    <t>You need quite some experience to be able to use it
-High system requirements
-Lack of free high quality designs
-Niet gebruiker vriendelijk</t>
-  </si>
-  <si>
-    <t>Very Customizable
+Niet al te hoge prestatie</t>
+  </si>
+  <si>
+    <t>Je hebt veel ervaring nodig om deze software te kunnen gebruiken
+Hoge systeem vereisten
+tekort aan gratis, hoge kwaliteit designs
+Niet gebruiker vriendelijk
+Je moet goed opletten welke hosting provider</t>
+  </si>
+  <si>
+    <t>Zeer aanpasbaar naar wensen
 Open Source
-Professional Online community
-Great Security
-High Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minder vaak hacker doelwit
-Open source
-Veel functies
-</t>
-  </si>
-  <si>
-    <t>Gebruiksgemak
-Onduidelijk visie
-Incompatible met Chrome &amp; Firefox
-Lack of support
-Extreem kwestbare beveiliging
-Mogelijkheden liggen tussen Wordpress &amp; Drupal</t>
+Professionele online gemeenschap
+Goede beveiliging
+Hoge snelheid</t>
+  </si>
+  <si>
+    <t>Sterke punten</t>
+  </si>
+  <si>
+    <t>Zwakke punten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +121,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,12 +162,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,11 +489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -484,14 +505,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
@@ -499,24 +520,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
